--- a/grantt+burndown_chart/burndown-chart-shengrui.xlsx
+++ b/grantt+burndown_chart/burndown-chart-shengrui.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shengrui\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shengrui\Desktop\COMP3111\Project\COMP-3111\grantt+burndown_chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898ECF9D-6333-40B6-9634-9BA22164CE4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22018B-4975-4046-89D5-C824A25BDA91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LI, Junrong" sheetId="3" r:id="rId1"/>
@@ -250,7 +250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -308,19 +308,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,7 +479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -537,19 +537,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +708,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -766,19 +766,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0CCBF1-C9DD-4B48-AAF9-D27BB7802A46}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView view="pageLayout" zoomScale="29" zoomScalePageLayoutView="29" workbookViewId="0">
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1405,7 +1405,9 @@
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
@@ -1417,10 +1419,14 @@
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
       <c r="D4" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1429,11 +1435,17 @@
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
       <c r="E5" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1441,13 +1453,19 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="B6" s="3">
         <v>8</v>
       </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A7" s="5"/>
@@ -1590,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1620,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060935D1-041B-4664-A33C-F2F1868FB468}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView view="pageLayout" zoomScale="32" zoomScalePageLayoutView="32" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1666,7 +1684,9 @@
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -1678,8 +1698,12 @@
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
       <c r="D4" s="3">
         <v>7</v>
       </c>
@@ -1690,9 +1714,15 @@
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
       <c r="E5" s="7">
         <v>9</v>
       </c>
@@ -1702,13 +1732,19 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="B6" s="3">
         <v>8</v>
       </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A7" s="5"/>
@@ -1851,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E24" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="29" zoomScalePageLayoutView="29" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1916,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1927,7 +1963,9 @@
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -1939,10 +1977,14 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
       <c r="D4" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1951,9 +1993,15 @@
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
       <c r="E5" s="7">
         <v>8</v>
       </c>
@@ -1963,13 +2011,19 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="B6" s="3">
         <v>8</v>
       </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A7" s="5"/>
@@ -2112,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E24" s="8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F24" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
